--- a/src/database/seeds/files/subject_requirements.xlsx
+++ b/src/database/seeds/files/subject_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ignug-backend\src\database\seeds\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFF7C71-70CC-40B5-B163-B06C23CE883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AFADB-023B-4ECB-AAF7-002DBE78EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>type</t>
   </si>
@@ -37,16 +37,19 @@
     <t>cod2</t>
   </si>
   <si>
-    <t>cod7</t>
-  </si>
-  <si>
     <t>PREREQUISITE</t>
   </si>
   <si>
-    <t>cod8</t>
+    <t>CO_REQUISITE</t>
   </si>
   <si>
-    <t>CO_REQUISITE</t>
+    <t>cod5</t>
+  </si>
+  <si>
+    <t>cod6</t>
+  </si>
+  <si>
+    <t>cod4</t>
   </si>
 </sst>
 </file>
@@ -887,16 +890,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,35 +916,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
